--- a/202304/05_結合テスト/結合テストエビデンス/結合テストエビデンス .XLSX
+++ b/202304/05_結合テスト/結合テストエビデンス/結合テストエビデンス .XLSX
@@ -9,12 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="8160"/>
+    <workbookView xWindow="-2550" yWindow="-16290" windowWidth="28995" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,20 +206,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10"/>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="693084" y="5555316"/>
-          <a:ext cx="7747747" cy="3765177"/>
+          <a:off x="695325" y="5619750"/>
+          <a:ext cx="7772400" cy="3810000"/>
           <a:chOff x="685800" y="33099375"/>
           <a:chExt cx="7772400" cy="3810000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -221,13 +244,19 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="図 32"/>
+            <xdr:cNvPr id="33" name="図 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -250,7 +279,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="楕円 36"/>
+            <xdr:cNvPr id="37" name="楕円 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -293,7 +328,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -341,20 +382,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="グループ化 22"/>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="657225" y="259416"/>
-          <a:ext cx="7716931" cy="5215218"/>
+          <a:off x="657225" y="262217"/>
+          <a:ext cx="7743825" cy="5276851"/>
           <a:chOff x="657225" y="180975"/>
           <a:chExt cx="7716931" cy="5215218"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="14" name="グループ化 13"/>
+          <xdr:cNvPr id="14" name="グループ化 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -367,7 +420,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="13" name="グループ化 12"/>
+            <xdr:cNvPr id="13" name="グループ化 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -380,7 +439,13 @@
           </xdr:grpSpPr>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="31" name="図 30"/>
+              <xdr:cNvPr id="31" name="図 30">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1"/>
               </xdr:cNvPicPr>
@@ -409,7 +474,13 @@
           </xdr:pic>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="35" name="楕円 34"/>
+              <xdr:cNvPr id="35" name="楕円 34">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -452,7 +523,13 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+            <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -485,7 +562,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -530,7 +613,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+          <xdr:cNvPr id="40" name="正方形/長方形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -591,7 +680,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -629,7 +724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -667,7 +768,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -680,46 +787,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="605025" y="28802106"/>
-          <a:ext cx="8633665" cy="6302447"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>669553</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>31378</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>630818</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="669553" y="35800554"/>
-          <a:ext cx="10214647" cy="6031006"/>
+          <a:off x="605025" y="29143885"/>
+          <a:ext cx="8662800" cy="6378087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,20 +812,237 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="グループ化 23"/>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="806823" y="14327282"/>
-          <a:ext cx="7338172" cy="6993031"/>
+          <a:off x="809064" y="14495370"/>
+          <a:ext cx="7360584" cy="7077075"/>
           <a:chOff x="571499" y="14338487"/>
           <a:chExt cx="7338172" cy="6993031"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="图片 2"/>
+          <xdr:cNvPr id="3" name="图片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571499" y="14338487"/>
+            <a:ext cx="7338172" cy="6993031"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4206129" y="14996831"/>
+            <a:ext cx="2126876" cy="327772"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="楕円 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3732118" y="20492197"/>
+            <a:ext cx="1329018" cy="642097"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>遷移成功</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4282327" y="19741403"/>
+            <a:ext cx="28575" cy="760319"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>505284</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="697006" y="70087189"/>
+          <a:ext cx="10095278" cy="5715002"/>
+          <a:chOff x="694765" y="63380468"/>
+          <a:chExt cx="10063901" cy="5647767"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -769,27 +1055,29 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="571499" y="14338487"/>
-            <a:ext cx="7338172" cy="6993031"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
+            <a:off x="694765" y="63380468"/>
+            <a:ext cx="10063901" cy="5647767"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4206129" y="14996831"/>
-            <a:ext cx="2126876" cy="327772"/>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6992471" y="68182189"/>
+            <a:ext cx="773206" cy="364194"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -828,327 +1116,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="楕円 31"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3732118" y="20492197"/>
-            <a:ext cx="1329018" cy="642097"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>遷移成功</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="4282327" y="19741403"/>
-            <a:ext cx="28575" cy="760319"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>630442</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="784411" y="42178940"/>
-          <a:ext cx="10099413" cy="6622677"/>
-          <a:chOff x="683558" y="42167735"/>
-          <a:chExt cx="10099413" cy="8483077"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="图片 7"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="683558" y="42167735"/>
-            <a:ext cx="10099413" cy="8483077"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="楕円 41"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4000499" y="49541205"/>
-            <a:ext cx="1329018" cy="642097"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>遷移成功</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="4550708" y="48790411"/>
-            <a:ext cx="28575" cy="760319"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>275104</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>50987</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="グループ化 25"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="739588" y="49485176"/>
-          <a:ext cx="8421781" cy="7984752"/>
-          <a:chOff x="683559" y="49417941"/>
-          <a:chExt cx="8421781" cy="7984752"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="44" name="図 43" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\S14GMB]K1Q~UTAPYI$SJKID.png"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="683559" y="49417941"/>
-            <a:ext cx="8421781" cy="7984752"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6400800" y="56253529"/>
-            <a:ext cx="995082" cy="425824"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="吹き出し: 四角形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7779123" y="55866926"/>
-            <a:ext cx="521634" cy="386192"/>
+          <xdr:cNvPr id="54" name="吹き出し: 四角形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8068236" y="67896438"/>
+            <a:ext cx="499311" cy="330298"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
@@ -1290,38 +1270,200 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>10906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>139239</xdr:rowOff>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>37990</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="グループ化 26"/>
+        <xdr:cNvPr id="28" name="グループ化 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="683560" y="57654266"/>
-          <a:ext cx="10208558" cy="5081032"/>
-          <a:chOff x="688732" y="59238174"/>
-          <a:chExt cx="10280966" cy="5216796"/>
+          <a:off x="708213" y="75972781"/>
+          <a:ext cx="10071846" cy="5265834"/>
+          <a:chOff x="705972" y="69196024"/>
+          <a:chExt cx="10040469" cy="5204201"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="48" name="図 47" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\W9FPVDPMAGYZ5996OFX8D`X.png"/>
+          <xdr:cNvPr id="20" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="705972" y="69196024"/>
+            <a:ext cx="10040469" cy="5204201"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="楕円 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3821208" y="73674240"/>
+            <a:ext cx="1329930" cy="500828"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>遷移成功</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4367542" y="73084465"/>
+            <a:ext cx="28374" cy="597018"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="グループ化 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="99536250"/>
+          <a:ext cx="7915275" cy="8181975"/>
+          <a:chOff x="683559" y="89658265"/>
+          <a:chExt cx="7890622" cy="8086725"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="65" name="図 64" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\~0C37CMV}VJX4E181X$]$1O.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1335,8 +1477,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="688732" y="59238174"/>
-            <a:ext cx="10280966" cy="5216796"/>
+            <a:off x="683559" y="89658265"/>
+            <a:ext cx="7890622" cy="8086725"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1355,13 +1497,19 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="890437" y="61801736"/>
-            <a:ext cx="9563789" cy="264198"/>
+          <xdr:cNvPr id="66" name="正方形/長方形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6454589" y="97014927"/>
+            <a:ext cx="1008530" cy="420219"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1400,184 +1548,19 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="楕円 50"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4910763" y="63419248"/>
-            <a:ext cx="1339363" cy="514210"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>遷移成功</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="5460972" y="62813714"/>
-            <a:ext cx="28575" cy="612970"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>78439</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>505284</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="694765" y="63380468"/>
-          <a:ext cx="10063901" cy="5647767"/>
-          <a:chOff x="694765" y="63380468"/>
-          <a:chExt cx="10063901" cy="5647767"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="図 3"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="694765" y="63380468"/>
-            <a:ext cx="10063901" cy="5647767"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6992471" y="68182189"/>
-            <a:ext cx="773206" cy="364194"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="吹き出し: 四角形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8068236" y="67896438"/>
-            <a:ext cx="499311" cy="330298"/>
+          <xdr:cNvPr id="67" name="吹き出し: 四角形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7530354" y="96729176"/>
+            <a:ext cx="651275" cy="381109"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
@@ -1719,38 +1702,50 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>294</xdr:row>
-      <xdr:rowOff>10906</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>316</xdr:row>
-      <xdr:rowOff>37990</xdr:rowOff>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>27083</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvPr id="68" name="グループ化 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="705972" y="69196024"/>
-          <a:ext cx="10040469" cy="5204201"/>
+          <a:off x="685800" y="107870625"/>
+          <a:ext cx="10071846" cy="5265833"/>
           <a:chOff x="705972" y="69196024"/>
           <a:chExt cx="10040469" cy="5204201"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="図 2"/>
+          <xdr:cNvPr id="69" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1767,7 +1762,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="楕円 54"/>
+          <xdr:cNvPr id="70" name="楕円 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1809,7 +1810,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+          <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1844,39 +1851,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>337857</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>186578</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>296659</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="グループ化 29"/>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="649941" y="75169059"/>
-          <a:ext cx="7890622" cy="8086725"/>
-          <a:chOff x="649941" y="75169059"/>
-          <a:chExt cx="7890622" cy="8086725"/>
+          <a:off x="685800" y="36195001"/>
+          <a:ext cx="11955259" cy="5975536"/>
+          <a:chOff x="683559" y="35769177"/>
+          <a:chExt cx="11917159" cy="5905500"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="58" name="図 57" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\~0C37CMV}VJX4E181X$]$1O.png"/>
+          <xdr:cNvPr id="73" name="図 72" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\@YGKPI5KBF453C{8IJFB{HE.png"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1890,8 +1897,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="649941" y="75169059"/>
-            <a:ext cx="7890622" cy="8086725"/>
+            <a:off x="683559" y="35769177"/>
+            <a:ext cx="11917159" cy="5905500"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1910,13 +1917,19 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="正方形/長方形 58"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6409764" y="81943015"/>
-            <a:ext cx="1008530" cy="420219"/>
+          <xdr:cNvPr id="75" name="正方形/長方形 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1400735" y="36856147"/>
+            <a:ext cx="1154206" cy="280148"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1955,18 +1968,2958 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="吹き出し: 四角形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7485529" y="81657264"/>
-            <a:ext cx="651275" cy="381109"/>
+          <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2745441" y="35870029"/>
+            <a:ext cx="914400" cy="612648"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -74755"/>
+              <a:gd name="adj2" fmla="val 93595"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="正方形/長方形 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2700617" y="36912176"/>
+            <a:ext cx="986117" cy="190502"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="正方形/長方形 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3843617" y="36912175"/>
+            <a:ext cx="728383" cy="224119"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="正方形/長方形 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4684060" y="36923383"/>
+            <a:ext cx="874058" cy="190501"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="正方形/長方形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6147549" y="36934588"/>
+            <a:ext cx="632010" cy="174813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="正方形/長方形 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6938684" y="36930106"/>
+            <a:ext cx="632010" cy="174813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="正方形/長方形 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7640171" y="36923380"/>
+            <a:ext cx="842682" cy="212913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8684558" y="36912177"/>
+            <a:ext cx="986117" cy="190499"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="正方形/長方形 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9906000" y="36923382"/>
+            <a:ext cx="1826559" cy="212911"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>115979</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="708213" y="42372241"/>
+          <a:ext cx="7037294" cy="7035613"/>
+          <a:chOff x="702770" y="43576474"/>
+          <a:chExt cx="6982866" cy="7237804"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="74" name="図 73" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\OBH1L`WMIC@`FLF}7E8V{SJ.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="702770" y="43576474"/>
+            <a:ext cx="6982866" cy="7224592"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="正方形/長方形 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4093348" y="44332071"/>
+            <a:ext cx="2141924" cy="300960"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="正方形/長方形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4036039" y="44907094"/>
+            <a:ext cx="2138722" cy="300959"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="正方形/長方形 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4082143" y="47884335"/>
+            <a:ext cx="1573625" cy="267340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="正方形/長方形 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4060691" y="48450394"/>
+            <a:ext cx="2138722" cy="310564"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="正方形/長方形 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4097828" y="49064155"/>
+            <a:ext cx="2795390" cy="271830"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="正方形/長方形 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4065174" y="45515734"/>
+            <a:ext cx="2138722" cy="310564"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="正方形/長方形 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4071898" y="46100360"/>
+            <a:ext cx="2138722" cy="300960"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="正方形/長方形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4083104" y="46691071"/>
+            <a:ext cx="525715" cy="300959"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="正方形/長方形 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4086625" y="47286904"/>
+            <a:ext cx="1090492" cy="300959"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="楕円 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2953923" y="50152971"/>
+            <a:ext cx="1322614" cy="661307"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>遷移成功</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3526173" y="49342702"/>
+            <a:ext cx="28575" cy="789134"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>638603</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="図 104" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\H3~~Y28[%[([RSR4~AO6MXO.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="49824154"/>
+          <a:ext cx="15726203" cy="4955802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>12444</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="55006875"/>
+          <a:ext cx="8148918" cy="9537444"/>
+          <a:chOff x="683559" y="54359735"/>
+          <a:chExt cx="8124265" cy="9425385"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="106" name="図 105" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\QCSOEA[S~V7}E](S@%J_2RU.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="683559" y="54359735"/>
+            <a:ext cx="8124265" cy="9425385"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="正方形/長方形 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4867834" y="55413088"/>
+            <a:ext cx="2449607" cy="291354"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="正方形/長方形 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4863352" y="56204224"/>
+            <a:ext cx="2449607" cy="291354"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="正方形/長方形 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4867833" y="60926381"/>
+            <a:ext cx="2483225" cy="313766"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="正方形/長方形 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4831975" y="59377729"/>
+            <a:ext cx="2449607" cy="291354"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="正方形/長方形 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4883521" y="61722000"/>
+            <a:ext cx="2400304" cy="302558"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="正方形/長方形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4847663" y="57757360"/>
+            <a:ext cx="2449607" cy="291354"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="正方形/長方形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4865594" y="56968466"/>
+            <a:ext cx="2449607" cy="291354"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="正方形/長方形 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6019799" y="58537288"/>
+            <a:ext cx="894230" cy="316005"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="正方形/長方形 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4849903" y="60124043"/>
+            <a:ext cx="1873626" cy="291354"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="正方形/長方形 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7004797" y="62484559"/>
+            <a:ext cx="1436034" cy="461122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="角丸四角形吹き出し 131"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5277971" y="62437495"/>
+            <a:ext cx="912840" cy="614311"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 129799"/>
+              <a:gd name="adj2" fmla="val 2941"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670672</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>233643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>334496</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>129512</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="670672" y="64765518"/>
+          <a:ext cx="14751424" cy="4420244"/>
+          <a:chOff x="670672" y="64006319"/>
+          <a:chExt cx="14702118" cy="4367017"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="107" name="図 106" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\3E}CYI9MNT53__]}WKPBHSG.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="670672" y="64006319"/>
+            <a:ext cx="14702118" cy="4367017"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="正方形/長方形 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1561540" y="67773176"/>
+            <a:ext cx="1286995" cy="221876"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="正方形/長方形 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3143810" y="67766453"/>
+            <a:ext cx="1005168" cy="216273"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="正方形/長方形 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4514850" y="67773176"/>
+            <a:ext cx="803462" cy="214593"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="正方形/長方形 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5558118" y="67766454"/>
+            <a:ext cx="1165411" cy="235322"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="正方形/長方形 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7230035" y="67773177"/>
+            <a:ext cx="1029821" cy="235323"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="正方形/長方形 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8349504" y="67766453"/>
+            <a:ext cx="832037" cy="251572"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="正方形/長方形 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9261663" y="67766453"/>
+            <a:ext cx="832037" cy="251572"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="正方形/長方形 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10504955" y="67756928"/>
+            <a:ext cx="1239370" cy="251572"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="正方形/長方形 140">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12138773" y="67782701"/>
+            <a:ext cx="2170578" cy="254374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>37389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="図 141" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\_BELD2C0VYBWM%8X({%K819.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="82000725"/>
+          <a:ext cx="14049375" cy="1142289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="83343750"/>
+          <a:ext cx="5895975" cy="8124825"/>
+          <a:chOff x="685800" y="83343750"/>
+          <a:chExt cx="5895975" cy="8124825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="143" name="図 142" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\8~{7YFHFE74U1@SW6${E`VK.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="685800" y="83343750"/>
+            <a:ext cx="5895975" cy="8124825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="正方形/長方形 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533776" y="84239100"/>
+            <a:ext cx="1905000" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="正方形/長方形 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3571876" y="84924900"/>
+            <a:ext cx="1828799" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="正方形/長方形 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3571876" y="85582125"/>
+            <a:ext cx="1828799" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="正方形/長方形 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3571876" y="86258400"/>
+            <a:ext cx="1828799" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="正方形/長方形 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3495676" y="86896575"/>
+            <a:ext cx="495299" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="正方形/長方形 149">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3571877" y="87591900"/>
+            <a:ext cx="828674" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="正方形/長方形 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3590927" y="88268174"/>
+            <a:ext cx="1371598" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="正方形/長方形 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3600452" y="88944449"/>
+            <a:ext cx="1790698" cy="285751"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="正方形/長方形 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3562352" y="89620724"/>
+            <a:ext cx="2476498" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="正方形/長方形 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5229225" y="90290878"/>
+            <a:ext cx="990600" cy="387122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="吹き出し: 四角形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4250943" y="90363675"/>
+            <a:ext cx="639697" cy="351092"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -103608"/>
-              <a:gd name="adj2" fmla="val 98085"/>
+              <a:gd name="adj1" fmla="val 110806"/>
+              <a:gd name="adj2" fmla="val 3131"/>
             </a:avLst>
           </a:prstGeom>
           <a:solidFill>
@@ -2104,163 +5057,37 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>470646</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>27083</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>23625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="61" name="グループ化 60"/>
+        <xdr:cNvPr id="39" name="グループ化 38"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="683559" y="83539853"/>
-          <a:ext cx="10040469" cy="5204201"/>
-          <a:chOff x="705972" y="69196024"/>
-          <a:chExt cx="10040469" cy="5204201"/>
+          <a:off x="685800" y="91678125"/>
+          <a:ext cx="13879286" cy="6929250"/>
+          <a:chOff x="687457" y="92475326"/>
+          <a:chExt cx="13912416" cy="6989299"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="62" name="図 2"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="705972" y="69196024"/>
-            <a:ext cx="10040469" cy="5204201"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="楕円 62"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3821208" y="73674240"/>
-            <a:ext cx="1329930" cy="500828"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>遷移成功</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="4367542" y="73084465"/>
-            <a:ext cx="28374" cy="597018"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>381</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>415</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="グループ化 71"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="683559" y="89658265"/>
-          <a:ext cx="7890622" cy="8086725"/>
-          <a:chOff x="683559" y="89658265"/>
-          <a:chExt cx="7890622" cy="8086725"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="65" name="図 64" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\~0C37CMV}VJX4E181X$]$1O.png"/>
+          <xdr:cNvPr id="144" name="図 143" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\W(L`6`X~RCLB1_`5KDDNG%H.png"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2274,8 +5101,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="683559" y="89658265"/>
-            <a:ext cx="7890622" cy="8086725"/>
+            <a:off x="687457" y="92475326"/>
+            <a:ext cx="13912416" cy="6989299"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2294,13 +5121,19 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="正方形/長方形 65"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6454589" y="97014927"/>
-            <a:ext cx="1008530" cy="420219"/>
+          <xdr:cNvPr id="156" name="正方形/長方形 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1636170" y="95999990"/>
+            <a:ext cx="1180331" cy="240196"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2339,274 +5172,412 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="吹き出し: 四角形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7530354" y="96729176"/>
-            <a:ext cx="651275" cy="381109"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -103608"/>
-              <a:gd name="adj2" fmla="val 98085"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>押下</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>416</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>470646</xdr:colOff>
-      <xdr:row>438</xdr:row>
-      <xdr:rowOff>27083</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="68" name="グループ化 67"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="683559" y="97894588"/>
-          <a:ext cx="10040469" cy="5204201"/>
-          <a:chOff x="705972" y="69196024"/>
-          <a:chExt cx="10040469" cy="5204201"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="69" name="図 2"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="705972" y="69196024"/>
-            <a:ext cx="10040469" cy="5204201"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="楕円 69"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3821208" y="73674240"/>
-            <a:ext cx="1329930" cy="500828"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>遷移成功</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="4367542" y="73084465"/>
-            <a:ext cx="28374" cy="597018"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
+          <xdr:cNvPr id="157" name="正方形/長方形 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3058708" y="95999990"/>
+            <a:ext cx="1180331" cy="240196"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="正方形/長方形 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4395521" y="95999990"/>
+            <a:ext cx="807200" cy="249721"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="正方形/長方形 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379495" y="95993779"/>
+            <a:ext cx="691657" cy="250134"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="正方形/長方形 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7110560" y="96002062"/>
+            <a:ext cx="691657" cy="225286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="161" name="正方形/長方形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8074655" y="96021940"/>
+            <a:ext cx="691657" cy="225286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="162" name="正方形/長方形 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8873098" y="95983840"/>
+            <a:ext cx="858967" cy="251790"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="正方形/長方形 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10049228" y="96008687"/>
+            <a:ext cx="1148859" cy="260073"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="正方形/長方形 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11568259" y="95987152"/>
+            <a:ext cx="2023502" cy="256761"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2871,10 +5842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K380"/>
+  <dimension ref="A1:K417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R411" sqref="R411"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K381" sqref="K381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2926,47 +5897,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
+    <row r="209" spans="1:6">
+      <c r="A209">
         <v>5</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B209" t="s">
         <v>9</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F209" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
-      <c r="A269">
+    <row r="294" spans="1:7">
+      <c r="A294">
         <v>6</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B294" t="s">
         <v>12</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G294" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
-      <c r="A319">
+    <row r="344" spans="1:6">
+      <c r="A344">
         <v>7</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B344" t="s">
         <v>13</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F344" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
-      <c r="A380">
+    <row r="417" spans="1:6">
+      <c r="A417">
         <v>8</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B417" t="s">
         <v>14</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F417" t="s">
         <v>15</v>
       </c>
     </row>
